--- a/data/admin.xlsx
+++ b/data/admin.xlsx
@@ -59,82 +59,82 @@
     <t>Những nguyên lý cơ bản của Chủ nghĩa Mác</t>
   </si>
   <si>
+    <t>POLS131</t>
+  </si>
+  <si>
+    <t>Đường lối cách mạng của Đảng Cộng sản VN</t>
+  </si>
+  <si>
+    <t>POLS132</t>
+  </si>
+  <si>
+    <t>Tư tưởng Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>MATH101</t>
+  </si>
+  <si>
+    <t>Giải tích 1A</t>
+  </si>
+  <si>
+    <t>Recommend to learn in the first quarter of second year/can learn with Math103</t>
+  </si>
+  <si>
+    <t>MATH102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giải tích 1B </t>
+  </si>
+  <si>
+    <t>Recommend to learn in the second quarter of second year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH101 </t>
+  </si>
+  <si>
+    <t>MATH103</t>
+  </si>
+  <si>
+    <t>Đại số tuyến tính</t>
+  </si>
+  <si>
+    <t>Recommend to learn in the first quarter of second year/can learn with Math101</t>
+  </si>
+  <si>
+    <t>MATH201</t>
+  </si>
+  <si>
+    <t>Giải tích 2A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH101 MATH102 </t>
+  </si>
+  <si>
+    <t>MATH202</t>
+  </si>
+  <si>
+    <t>Giải tích 2B</t>
+  </si>
+  <si>
+    <t>MATH203</t>
+  </si>
+  <si>
+    <t>Giải tích 3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH101 MATH102 MATH202 </t>
+  </si>
+  <si>
+    <t>MATH204</t>
+  </si>
+  <si>
+    <t>Giải tích 3B</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>POLS131</t>
-  </si>
-  <si>
-    <t>Đường lối cách mạng của Đảng Cộng sản VN</t>
-  </si>
-  <si>
-    <t>POLS132</t>
-  </si>
-  <si>
-    <t>Tư tưởng Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>MATH101</t>
-  </si>
-  <si>
-    <t>Giải tích 1A</t>
-  </si>
-  <si>
-    <t>Recommend to learn in the first quarter of second year/can learn with Math103</t>
-  </si>
-  <si>
-    <t>MATH102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giải tích 1B </t>
-  </si>
-  <si>
-    <t>Recommend to learn in the second quarter of second year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH101 </t>
-  </si>
-  <si>
-    <t>MATH103</t>
-  </si>
-  <si>
-    <t>Đại số tuyến tính</t>
-  </si>
-  <si>
-    <t>Recommend to learn in the first quarter of second year/can learn with Math101</t>
-  </si>
-  <si>
-    <t>MATH201</t>
-  </si>
-  <si>
-    <t>Giải tích 2A</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH101 MATH102 </t>
-  </si>
-  <si>
-    <t>MATH202</t>
-  </si>
-  <si>
-    <t>Giải tích 2B</t>
-  </si>
-  <si>
-    <t>MATH203</t>
-  </si>
-  <si>
-    <t>Giải tích 3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH101 MATH102 MATH202 </t>
-  </si>
-  <si>
-    <t>MATH204</t>
-  </si>
-  <si>
-    <t>Giải tích 3B</t>
   </si>
   <si>
     <t xml:space="preserve">MATH101 MATH102 MATH103 </t>
@@ -647,7 +647,7 @@
         <v>8.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>12</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>17</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>5.0</v>
@@ -673,7 +673,7 @@
         <v>8.0</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>12</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>3.0</v>
@@ -699,7 +699,7 @@
         <v>8.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>12</v>
@@ -707,17 +707,17 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C6" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="E6" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>8.0</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>12</v>
@@ -733,42 +733,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C7" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>29</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>0.0</v>
@@ -777,7 +777,7 @@
         <v>10.0</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>12</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="C9" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>0.0</v>
@@ -803,24 +803,24 @@
         <v>10.0</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>35</v>
-      </c>
       <c r="C10" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>0.0</v>
@@ -829,50 +829,50 @@
         <v>10.0</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="C11" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>40</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>0.0</v>
@@ -881,7 +881,7 @@
         <v>8.0</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>41</v>
@@ -898,7 +898,7 @@
         <v>4.0</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>0.0</v>
@@ -907,10 +907,10 @@
         <v>8.0</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -924,7 +924,7 @@
         <v>4.0</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>0.0</v>
@@ -933,7 +933,7 @@
         <v>8.0</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="0">
         <v>12</v>
@@ -950,7 +950,7 @@
         <v>4.0</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>0.0</v>
@@ -959,7 +959,7 @@
         <v>8.0</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="0">
         <v>48</v>
@@ -976,7 +976,7 @@
         <v>4.0</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>0.0</v>
@@ -985,7 +985,7 @@
         <v>8.0</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="0">
         <v>51</v>
@@ -1002,7 +1002,7 @@
         <v>4.0</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n" s="0">
         <v>0.0</v>
@@ -1011,7 +1011,7 @@
         <v>10.0</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="0">
         <v>12</v>
@@ -1028,7 +1028,7 @@
         <v>4.0</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n" s="0">
         <v>0.0</v>
@@ -1037,7 +1037,7 @@
         <v>10.0</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="0">
         <v>12</v>
@@ -1054,7 +1054,7 @@
         <v>4.0</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>0.0</v>
@@ -1063,7 +1063,7 @@
         <v>10.0</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="0">
         <v>12</v>
@@ -1080,7 +1080,7 @@
         <v>4.0</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>0.0</v>
@@ -1089,7 +1089,7 @@
         <v>8.0</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="0">
         <v>60</v>
@@ -1106,7 +1106,7 @@
         <v>4.0</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n" s="0">
         <v>0.0</v>
@@ -1115,7 +1115,7 @@
         <v>8.0</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="0">
         <v>63</v>
@@ -1132,7 +1132,7 @@
         <v>4.0</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n" s="0">
         <v>0.0</v>
@@ -1141,7 +1141,7 @@
         <v>8.0</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="0">
         <v>60</v>
@@ -1158,7 +1158,7 @@
         <v>4.0</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>0.0</v>
@@ -1167,7 +1167,7 @@
         <v>8.0</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="0">
         <v>68</v>
@@ -1184,7 +1184,7 @@
         <v>4.0</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>0.0</v>
@@ -1193,7 +1193,7 @@
         <v>8.0</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="0">
         <v>71</v>
@@ -1210,7 +1210,7 @@
         <v>4.0</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n" s="0">
         <v>0.0</v>
@@ -1219,7 +1219,7 @@
         <v>8.0</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="0">
         <v>68</v>
@@ -1236,7 +1236,7 @@
         <v>4.0</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n" s="0">
         <v>0.0</v>
@@ -1245,7 +1245,7 @@
         <v>10.0</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="0">
         <v>60</v>
@@ -1262,7 +1262,7 @@
         <v>4.0</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n" s="0">
         <v>0.0</v>
@@ -1271,7 +1271,7 @@
         <v>10.0</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="0">
         <v>78</v>
@@ -1288,7 +1288,7 @@
         <v>4.0</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" t="n" s="0">
         <v>0.0</v>
@@ -1297,7 +1297,7 @@
         <v>10.0</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="0">
         <v>60</v>
@@ -1314,7 +1314,7 @@
         <v>4.0</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" t="n" s="0">
         <v>0.0</v>
@@ -1323,7 +1323,7 @@
         <v>8.0</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="0">
         <v>71</v>
@@ -1340,7 +1340,7 @@
         <v>4.0</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n" s="0">
         <v>0.0</v>
@@ -1349,7 +1349,7 @@
         <v>8.0</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>85</v>
@@ -1366,7 +1366,7 @@
         <v>4.0</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="n" s="0">
         <v>0.0</v>
@@ -1375,7 +1375,7 @@
         <v>8.0</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="0">
         <v>88</v>
@@ -1392,7 +1392,7 @@
         <v>4.0</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" t="n" s="0">
         <v>0.0</v>
@@ -1401,7 +1401,7 @@
         <v>8.0</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="0">
         <v>91</v>
@@ -1418,7 +1418,7 @@
         <v>4.0</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" t="n" s="0">
         <v>0.0</v>
@@ -1427,7 +1427,7 @@
         <v>8.0</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="0">
         <v>94</v>
@@ -1444,7 +1444,7 @@
         <v>4.0</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>0.0</v>
@@ -1453,7 +1453,7 @@
         <v>8.0</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="0">
         <v>68</v>
@@ -1470,7 +1470,7 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n" s="0">
         <v>0.0</v>
@@ -1479,7 +1479,7 @@
         <v>10.0</v>
       </c>
       <c r="G35" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="0">
         <v>91</v>
@@ -1496,7 +1496,7 @@
         <v>1.0</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n" s="0">
         <v>0.0</v>
@@ -1505,7 +1505,7 @@
         <v>10.0</v>
       </c>
       <c r="G36" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="0">
         <v>101</v>
@@ -1522,7 +1522,7 @@
         <v>4.0</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" t="n" s="0">
         <v>0.0</v>
@@ -1531,7 +1531,7 @@
         <v>10.0</v>
       </c>
       <c r="G37" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="0">
         <v>91</v>
@@ -1548,7 +1548,7 @@
         <v>4.0</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" t="n" s="0">
         <v>0.0</v>
@@ -1557,7 +1557,7 @@
         <v>8.0</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="0">
         <v>106</v>
@@ -1574,7 +1574,7 @@
         <v>4.0</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" t="n" s="0">
         <v>0.0</v>
@@ -1583,7 +1583,7 @@
         <v>8.0</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="0">
         <v>109</v>
@@ -1600,7 +1600,7 @@
         <v>4.0</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" t="n" s="0">
         <v>0.0</v>
@@ -1609,7 +1609,7 @@
         <v>8.0</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s" s="0">
         <v>112</v>
@@ -1626,7 +1626,7 @@
         <v>3.0</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" t="n" s="0">
         <v>0.0</v>
@@ -1635,7 +1635,7 @@
         <v>8.0</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s" s="0">
         <v>112</v>
@@ -1652,7 +1652,7 @@
         <v>2.0</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" t="n" s="0">
         <v>0.0</v>
@@ -1661,7 +1661,7 @@
         <v>8.0</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="0">
         <v>117</v>
@@ -1678,7 +1678,7 @@
         <v>1.0</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" t="n" s="0">
         <v>0.0</v>
@@ -1687,7 +1687,7 @@
         <v>8.0</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="0">
         <v>120</v>
@@ -1704,7 +1704,7 @@
         <v>2.0</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" t="n" s="0">
         <v>0.0</v>
@@ -1713,7 +1713,7 @@
         <v>10.0</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="0">
         <v>123</v>
@@ -1730,7 +1730,7 @@
         <v>4.0</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" t="n" s="0">
         <v>0.0</v>
@@ -1739,7 +1739,7 @@
         <v>10.0</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>126</v>
@@ -1756,7 +1756,7 @@
         <v>4.0</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" t="n" s="0">
         <v>0.0</v>
@@ -1765,7 +1765,7 @@
         <v>10.0</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="0">
         <v>129</v>
@@ -1782,7 +1782,7 @@
         <v>4.0</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" t="n" s="0">
         <v>0.0</v>
@@ -1791,7 +1791,7 @@
         <v>8.0</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="0">
         <v>12</v>
@@ -1808,7 +1808,7 @@
         <v>4.0</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" t="n" s="0">
         <v>0.0</v>
@@ -1817,7 +1817,7 @@
         <v>8.0</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>129</v>
@@ -1834,7 +1834,7 @@
         <v>4.0</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" t="n" s="0">
         <v>0.0</v>
@@ -1843,7 +1843,7 @@
         <v>8.0</v>
       </c>
       <c r="G49" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="0">
         <v>129</v>
@@ -1860,7 +1860,7 @@
         <v>4.0</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" t="n" s="0">
         <v>0.0</v>
@@ -1869,7 +1869,7 @@
         <v>8.0</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="0">
         <v>91</v>
@@ -1886,7 +1886,7 @@
         <v>4.0</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" t="n" s="0">
         <v>0.0</v>
@@ -1895,7 +1895,7 @@
         <v>8.0</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s" s="0">
         <v>140</v>
@@ -1912,7 +1912,7 @@
         <v>4.0</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" t="n" s="0">
         <v>0.0</v>
@@ -1921,7 +1921,7 @@
         <v>8.0</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="0">
         <v>143</v>
@@ -1938,7 +1938,7 @@
         <v>4.0</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" t="n" s="0">
         <v>0.0</v>
@@ -1947,7 +1947,7 @@
         <v>10.0</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s" s="0">
         <v>146</v>
@@ -1964,7 +1964,7 @@
         <v>4.0</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" t="n" s="0">
         <v>0.0</v>
@@ -1973,7 +1973,7 @@
         <v>10.0</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="0">
         <v>149</v>
@@ -1990,7 +1990,7 @@
         <v>4.0</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" t="n" s="0">
         <v>0.0</v>
@@ -1999,7 +1999,7 @@
         <v>10.0</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="0">
         <v>152</v>
@@ -2016,7 +2016,7 @@
         <v>4.0</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" t="n" s="0">
         <v>0.0</v>
@@ -2025,7 +2025,7 @@
         <v>8.0</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="0">
         <v>68</v>
@@ -2042,7 +2042,7 @@
         <v>4.0</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" t="n" s="0">
         <v>0.0</v>
@@ -2051,7 +2051,7 @@
         <v>8.0</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H57" t="s" s="0">
         <v>60</v>
@@ -2068,7 +2068,7 @@
         <v>4.0</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" t="n" s="0">
         <v>0.0</v>
@@ -2077,7 +2077,7 @@
         <v>8.0</v>
       </c>
       <c r="G58" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s" s="0">
         <v>68</v>
@@ -2094,7 +2094,7 @@
         <v>4.0</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" t="n" s="0">
         <v>0.0</v>
@@ -2103,7 +2103,7 @@
         <v>8.0</v>
       </c>
       <c r="G59" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s" s="0">
         <v>91</v>
@@ -2120,7 +2120,7 @@
         <v>4.0</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E60" t="n" s="0">
         <v>0.0</v>
@@ -2129,7 +2129,7 @@
         <v>8.0</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s" s="0">
         <v>163</v>
@@ -2146,7 +2146,7 @@
         <v>4.0</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" t="n" s="0">
         <v>0.0</v>
@@ -2155,7 +2155,7 @@
         <v>8.0</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s" s="0">
         <v>166</v>
@@ -2172,7 +2172,7 @@
         <v>4.0</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E62" t="n" s="0">
         <v>0.0</v>
@@ -2181,7 +2181,7 @@
         <v>10.0</v>
       </c>
       <c r="G62" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s" s="0">
         <v>143</v>
@@ -2198,7 +2198,7 @@
         <v>4.0</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" t="n" s="0">
         <v>0.0</v>
@@ -2207,7 +2207,7 @@
         <v>10.0</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s" s="0">
         <v>91</v>

--- a/data/admin.xlsx
+++ b/data/admin.xlsx
@@ -641,7 +641,7 @@
         <v>8.0</v>
       </c>
       <c r="G3" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>11</v>
@@ -667,7 +667,7 @@
         <v>8.0</v>
       </c>
       <c r="G4" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>11</v>
@@ -693,7 +693,7 @@
         <v>8.0</v>
       </c>
       <c r="G5" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s" s="0">
         <v>11</v>
@@ -745,7 +745,7 @@
         <v>8.0</v>
       </c>
       <c r="G7" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>24</v>
@@ -771,7 +771,7 @@
         <v>10.0</v>
       </c>
       <c r="G8" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s" s="0">
         <v>11</v>
@@ -1057,7 +1057,7 @@
         <v>10.0</v>
       </c>
       <c r="G19" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s" s="0">
         <v>11</v>

--- a/data/admin.xlsx
+++ b/data/admin.xlsx
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>0.0</v>
+        <v>3.8</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>8.0</v>

--- a/data/admin.xlsx
+++ b/data/admin.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -50,16 +50,28 @@
     <t xml:space="preserve">None </t>
   </si>
   <si>
-    <t>POLS130</t>
-  </si>
-  <si>
-    <t>Những nguyên lý cơ bản của Chủ nghĩa Mác</t>
-  </si>
-  <si>
-    <t>POLS131</t>
-  </si>
-  <si>
-    <t>Đường lối cách mạng của Đảng Cộng sản VN</t>
+    <t>POLS133</t>
+  </si>
+  <si>
+    <t>Triết học Mác - Lênin</t>
+  </si>
+  <si>
+    <t>POLS134</t>
+  </si>
+  <si>
+    <t>Kinh tế chính trị Mác - Lênin</t>
+  </si>
+  <si>
+    <t>POLS135</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội khoa học</t>
+  </si>
+  <si>
+    <t>POLS136</t>
+  </si>
+  <si>
+    <t>Lịch sử Đảng Cộng sản Việt Nam</t>
   </si>
   <si>
     <t>POLS132</t>
@@ -83,75 +95,93 @@
     <t xml:space="preserve">Giải tích 1B </t>
   </si>
   <si>
+    <t>Recommend to learn in the second quarter of second year/After completing MATH101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH101 </t>
+  </si>
+  <si>
+    <t>MATH103</t>
+  </si>
+  <si>
+    <t>Đại số tuyến tính</t>
+  </si>
+  <si>
+    <t>Recommend to learn in the first quarter of second year/can learn with Math101</t>
+  </si>
+  <si>
+    <t>MATH201</t>
+  </si>
+  <si>
+    <t>Giải tích 2A</t>
+  </si>
+  <si>
+    <t>Recommend to learn after completing MATH102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH101 MATH102 </t>
+  </si>
+  <si>
+    <t>MATH202</t>
+  </si>
+  <si>
+    <t>Giải tích 2B</t>
+  </si>
+  <si>
+    <t>Recommend to learn after completing MATH201</t>
+  </si>
+  <si>
+    <t>MATH203</t>
+  </si>
+  <si>
+    <t>Giải tích 3A</t>
+  </si>
+  <si>
+    <t>Recommend to learn after completing MATH202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH101 MATH102 MATH202 </t>
+  </si>
+  <si>
+    <t>MATH204</t>
+  </si>
+  <si>
+    <t>Giải tích 3B</t>
+  </si>
+  <si>
+    <t>Recommend to learn after completing MATH203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH101 MATH102 MATH103 </t>
+  </si>
+  <si>
+    <t>MATH301</t>
+  </si>
+  <si>
+    <t>Xác suất thống kê</t>
+  </si>
+  <si>
+    <t>Recommend to learn in the third quarter of second year</t>
+  </si>
+  <si>
+    <t>PHYS201</t>
+  </si>
+  <si>
+    <t>Vật lý 1A</t>
+  </si>
+  <si>
+    <t>Recommend to learn in the first quarter of second year/Easy to get high score, just try to take note and do homework</t>
+  </si>
+  <si>
+    <t>PHYS202</t>
+  </si>
+  <si>
+    <t>Vật lý 1B</t>
+  </si>
+  <si>
     <t>Recommend to learn in the second quarter of second year</t>
   </si>
   <si>
-    <t xml:space="preserve">MATH101 </t>
-  </si>
-  <si>
-    <t>MATH103</t>
-  </si>
-  <si>
-    <t>Đại số tuyến tính</t>
-  </si>
-  <si>
-    <t>Recommend to learn in the first quarter of second year/can learn with Math101</t>
-  </si>
-  <si>
-    <t>MATH201</t>
-  </si>
-  <si>
-    <t>Giải tích 2A</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH101 MATH102 </t>
-  </si>
-  <si>
-    <t>MATH202</t>
-  </si>
-  <si>
-    <t>Giải tích 2B</t>
-  </si>
-  <si>
-    <t>MATH203</t>
-  </si>
-  <si>
-    <t>Giải tích 3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH101 MATH102 MATH202 </t>
-  </si>
-  <si>
-    <t>MATH204</t>
-  </si>
-  <si>
-    <t>Giải tích 3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH101 MATH102 MATH103 </t>
-  </si>
-  <si>
-    <t>MATH301</t>
-  </si>
-  <si>
-    <t>Xác suất thống kê</t>
-  </si>
-  <si>
-    <t>PHYS201</t>
-  </si>
-  <si>
-    <t>Vật lý 1A</t>
-  </si>
-  <si>
-    <t>PHYS202</t>
-  </si>
-  <si>
-    <t>Vật lý 1B</t>
-  </si>
-  <si>
     <t xml:space="preserve">PHYS201 </t>
   </si>
   <si>
@@ -161,6 +191,9 @@
     <t>Vật lý 2</t>
   </si>
   <si>
+    <t>Recommend to learn after completing PHYS202</t>
+  </si>
+  <si>
     <t xml:space="preserve">PHYS202 </t>
   </si>
   <si>
@@ -170,24 +203,36 @@
     <t>Kỹ năng giao tiếp</t>
   </si>
   <si>
+    <t xml:space="preserve">Recommend to learn at the end of the course, before getting a job/Learn about presentation, write cover letter, CV,… </t>
+  </si>
+  <si>
     <t>EBS405</t>
   </si>
   <si>
     <t>Quản trị doanh nghiệp</t>
   </si>
   <si>
+    <t>Recommend to learn at the end of the course</t>
+  </si>
+  <si>
     <t>CSE101</t>
   </si>
   <si>
     <t xml:space="preserve">Tin học đại cương </t>
   </si>
   <si>
+    <t>Recommend to learn in the first quarter of second year/and try to master the knowledge because it's a CIT foudation core subjects</t>
+  </si>
+  <si>
     <t>CSE102</t>
   </si>
   <si>
     <t>Nhập môn lập trình</t>
   </si>
   <si>
+    <t>Recommend to learn in the second quarter of second year/Start to learn about code</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE101 </t>
   </si>
   <si>
@@ -197,6 +242,9 @@
     <t>Toán rời rạc 1</t>
   </si>
   <si>
+    <t>Recommend to learn after completing MATH103</t>
+  </si>
+  <si>
     <t xml:space="preserve">MATH103 </t>
   </si>
   <si>
@@ -206,12 +254,18 @@
     <t>Toán tin ứng dụng</t>
   </si>
   <si>
+    <t>Recommend to learn in the second or third year of second year/Can learn with CSE102, but not recommened</t>
+  </si>
+  <si>
     <t>CSE201</t>
   </si>
   <si>
     <t>Cấu trúc dữ liệu và giải thuật</t>
   </si>
   <si>
+    <t>Recommend to learn in the first quarter of second year</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE102 </t>
   </si>
   <si>
@@ -221,6 +275,9 @@
     <t>Toán rời rạc 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Recommend to learn  after completing CSE106/Some students said it's quite difficult, should spend time to self-study </t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE106 </t>
   </si>
   <si>
@@ -230,18 +287,27 @@
     <t>Lập trình hướng đối tượng</t>
   </si>
   <si>
+    <t>Recommend to learn at the first quarter of third year/Can learn with CSE204, and try to master the knowledge and spend time to self-study because/it's a core subject providing knowledge for almost IT's jobs</t>
+  </si>
+  <si>
     <t>CSE204</t>
   </si>
   <si>
     <t>Mạng máy tính</t>
   </si>
   <si>
+    <t>Recommend to learn at the first quarter of third year/Can learn with CSE203</t>
+  </si>
+  <si>
     <t>CSE205</t>
   </si>
   <si>
     <t>Mạng và truyền thông</t>
   </si>
   <si>
+    <t>Recommend to learn at the first quarter of third year or after completing CSE204</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE204 </t>
   </si>
   <si>
@@ -251,18 +317,27 @@
     <t>Kiến trúc và cấu tạo máy tính</t>
   </si>
   <si>
+    <t xml:space="preserve">Recommend to learn in the third quarter of second year/Some students said it's quite difficult, should spend time to self-study </t>
+  </si>
+  <si>
     <t>CSE301</t>
   </si>
   <si>
     <t>Cơ sở dữ liệu</t>
   </si>
   <si>
+    <t>on updating</t>
+  </si>
+  <si>
     <t>CSE302</t>
   </si>
   <si>
     <t>Hệ điều hành</t>
   </si>
   <si>
+    <t>Recommend to learn in the fourth year</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE206 </t>
   </si>
   <si>
@@ -299,18 +374,27 @@
     <t>Lập trình Web</t>
   </si>
   <si>
+    <t>Recommend to learn at the first quarter of third year</t>
+  </si>
+  <si>
     <t>CSE310</t>
   </si>
   <si>
     <t>Đồ án kỹ thuật phần mềm</t>
   </si>
   <si>
+    <t>Recommend to learn at the second quarter of fourth year</t>
+  </si>
+  <si>
     <t>CSE311</t>
   </si>
   <si>
     <t>Đồ án chuyên ngành KTPM</t>
   </si>
   <si>
+    <t>Recommend to learn at the third quarter of fourth year</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE310 </t>
   </si>
   <si>
@@ -359,6 +443,9 @@
     <t xml:space="preserve">Thực tập tốt nghiệp KTPM </t>
   </si>
   <si>
+    <t>Recommend to learn at the summer quarter of third year or first quarter of fourth year</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE311 </t>
   </si>
   <si>
@@ -366,6 +453,9 @@
   </si>
   <si>
     <t>Đồ án tốt nghiệp KTPM 1</t>
+  </si>
+  <si>
+    <t>Recommend to learn at the first quarter of fourth year</t>
   </si>
   <si>
     <t xml:space="preserve">CSE311 CSE410 </t>
@@ -563,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -609,10 +699,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G2" t="b" s="0">
         <v>1</v>
@@ -629,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>10</v>
@@ -638,10 +728,10 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>11</v>
@@ -655,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>10</v>
@@ -664,10 +754,10 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>11</v>
@@ -687,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>0.0</v>
+        <v>3.7</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G5" t="b" s="0">
         <v>1</v>
@@ -707,16 +797,16 @@
         <v>19</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="b" s="0">
         <v>1</v>
@@ -727,48 +817,48 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="C7" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G7" t="b" s="0">
         <v>1</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" t="b" s="0">
         <v>1</v>
@@ -779,42 +869,42 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G9" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G9" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>0.0</v>
@@ -826,74 +916,74 @@
         <v>0</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="E11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G11" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="G11" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="C12" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C12" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="E12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G12" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="C13" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="C13" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="E13" t="n" s="0">
         <v>0.0</v>
       </c>
@@ -904,21 +994,21 @@
         <v>0</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>0.0</v>
@@ -930,21 +1020,21 @@
         <v>0</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>0.0</v>
@@ -956,102 +1046,102 @@
         <v>0</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>8.0</v>
       </c>
       <c r="G16" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G17" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G18" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F19" t="n" s="0">
         <v>10.0</v>
@@ -1065,94 +1155,94 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G20" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F21" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G21" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F22" t="n" s="0">
         <v>8.0</v>
       </c>
       <c r="G22" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>0.0</v>
@@ -1164,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>0.0</v>
@@ -1190,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="E25" t="n" s="0">
         <v>0.0</v>
@@ -1216,151 +1306,151 @@
         <v>0</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E26" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F26" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G26" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E27" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F27" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G27" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E28" t="n" s="0">
-        <v>0.0</v>
+        <v>3.3</v>
       </c>
       <c r="F28" t="n" s="0">
         <v>10.0</v>
       </c>
       <c r="G28" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E29" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F29" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G29" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E30" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F30" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G30" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E31" t="n" s="0">
         <v>0.0</v>
@@ -1372,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="E32" t="n" s="0">
         <v>0.0</v>
@@ -1398,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E33" t="n" s="0">
         <v>0.0</v>
@@ -1424,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>0.0</v>
@@ -1450,73 +1540,73 @@
         <v>0</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E35" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F35" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G35" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E36" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F36" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G36" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H36" t="s" s="0">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E37" t="n" s="0">
         <v>0.0</v>
@@ -1528,73 +1618,73 @@
         <v>0</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E38" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F38" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G38" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E39" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F39" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G39" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C40" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E40" t="n" s="0">
         <v>0.0</v>
@@ -1606,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E41" t="n" s="0">
         <v>0.0</v>
@@ -1632,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E42" t="n" s="0">
         <v>0.0</v>
@@ -1658,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E43" t="n" s="0">
         <v>0.0</v>
@@ -1684,73 +1774,73 @@
         <v>0</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C44" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="E44" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F44" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G44" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="E45" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F45" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G45" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E46" t="n" s="0">
         <v>0.0</v>
@@ -1762,73 +1852,73 @@
         <v>0</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E47" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F47" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G47" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>11</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E48" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F48" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G48" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E49" t="n" s="0">
         <v>0.0</v>
@@ -1840,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="H49" t="s" s="0">
-        <v>127</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E50" t="n" s="0">
         <v>0.0</v>
@@ -1866,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E51" t="n" s="0">
         <v>0.0</v>
@@ -1892,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C52" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E52" t="n" s="0">
         <v>0.0</v>
@@ -1918,73 +2008,73 @@
         <v>0</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C53" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E53" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F53" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G53" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C54" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E54" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F54" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G54" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C55" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E55" t="n" s="0">
         <v>0.0</v>
@@ -1996,73 +2086,73 @@
         <v>0</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C56" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E56" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F56" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G56" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>66</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C57" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E57" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F57" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G57" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>58</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C58" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E58" t="n" s="0">
         <v>0.0</v>
@@ -2074,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C59" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E59" t="n" s="0">
         <v>0.0</v>
@@ -2100,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C60" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E60" t="n" s="0">
         <v>0.0</v>
@@ -2126,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>161</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C61" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E61" t="n" s="0">
         <v>0.0</v>
@@ -2152,59 +2242,111 @@
         <v>0</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C62" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E62" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F62" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G62" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C63" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E63" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F63" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G63" t="b" s="0">
         <v>0</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>89</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G64" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E65" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G65" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
